--- a/va_facility_data_2025-02-20/Waterbury VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waterbury%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Waterbury VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Waterbury%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R36f986a970d745c39726fbef100b24bc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd7a0cc645f68413281845d400900dae1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfe3f4cee849f45a4a16562e95b541eb5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbaaaa876efab441f9c786ed4d8c16fc3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra4851f5ece004902be36ad75c65dcf50"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd370dcde5bc94b1cb52142c8a8cca56f"/>
   </x:sheets>
 </x:workbook>
 </file>
